--- a/docs/spec/tables/punctuators.xlsx
+++ b/docs/spec/tables/punctuators.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goats\Documents\dsl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goats\Documents\repos\cs3423-project\docs\spec\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA213183-0D30-4D7B-BEDB-80F061BD9D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A657DA4E-A993-4156-82C1-B705BB769C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{80D8C4F5-3D34-44DF-B7D6-9FF257957546}"/>
   </bookViews>
@@ -38,9 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>:</t>
   </si>
   <si>
@@ -53,61 +50,64 @@
     <t>;</t>
   </si>
   <si>
-    <t>Statement terminator</t>
-  </si>
-  <si>
     <t>,</t>
   </si>
   <si>
-    <t>Array separator</t>
-  </si>
-  <si>
-    <t>Member access</t>
-  </si>
-  <si>
-    <t>Range specifier</t>
-  </si>
-  <si>
     <t>{</t>
   </si>
   <si>
-    <t>Block start</t>
-  </si>
-  <si>
     <t>}</t>
   </si>
   <si>
-    <t>Block end</t>
-  </si>
-  <si>
     <t>(</t>
   </si>
   <si>
-    <t>Open parenthesis</t>
-  </si>
-  <si>
     <t>)</t>
   </si>
   <si>
-    <t>Close parenthesis</t>
-  </si>
-  <si>
     <t>[</t>
   </si>
   <si>
-    <t>Open bracket (for arrays, etc.)</t>
-  </si>
-  <si>
     <t>]</t>
   </si>
   <si>
-    <t>Close bracket</t>
-  </si>
-  <si>
     <t>"</t>
   </si>
   <si>
     <t>String delimiter</t>
+  </si>
+  <si>
+    <t>Left square bracket</t>
+  </si>
+  <si>
+    <t>Right square bracket</t>
+  </si>
+  <si>
+    <t>Right parenthesis</t>
+  </si>
+  <si>
+    <t>Left parenthesis</t>
+  </si>
+  <si>
+    <t>Right curly bracket</t>
+  </si>
+  <si>
+    <t>Left curly bracket</t>
+  </si>
+  <si>
+    <t>Colon</t>
+  </si>
+  <si>
+    <t>Dot</t>
+  </si>
+  <si>
+    <t>Comma</t>
+  </si>
+  <si>
+    <t>Semicolon</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -506,110 +506,110 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.6328125" style="3"/>
-    <col min="2" max="2" width="25.6328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" style="3" customWidth="1"/>
     <col min="3" max="16384" width="12.6328125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/docs/spec/tables/punctuators.xlsx
+++ b/docs/spec/tables/punctuators.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goats\Documents\repos\cs3423-project\docs\spec\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goats\Documents\bkchxdi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A657DA4E-A993-4156-82C1-B705BB769C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0215FD-970F-4003-B4B4-C0A2BF62522A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{80D8C4F5-3D34-44DF-B7D6-9FF257957546}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>:</t>
   </si>
@@ -108,6 +108,12 @@
   </si>
   <si>
     <t>Name</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>Tilde</t>
   </si>
 </sst>
 </file>
@@ -177,7 +183,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -189,6 +195,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,15 +516,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EAA00F9-1958-4299-BCCE-66D9004F88FB}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6328125" style="3"/>
+    <col min="1" max="1" width="12.6328125" style="5"/>
     <col min="2" max="2" width="18.81640625" style="3" customWidth="1"/>
     <col min="3" max="16384" width="12.6328125" style="3"/>
   </cols>
@@ -612,6 +625,14 @@
         <v>12</v>
       </c>
     </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
